--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_0_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_0_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.83435305583064, 50.07245971755486]</t>
+          <t>[49.83440990109228, 50.07240287229322]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.851048924889966, 50.02534542005523]</t>
+          <t>[49.8510931545863, 50.025301190358896]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.83188352960803, 50.13233441301829]</t>
+          <t>[49.83118640922864, 50.13303153339768]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.898616171217924, 50.06546415026379]</t>
+          <t>[49.898704568608245, 50.06537575287347]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.94386763640438, 50.26883152543681]</t>
+          <t>[49.947491046461614, 50.26520811537957]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.90867716033722, 50.07201776227204]</t>
+          <t>[49.90863780043246, 50.0720571221768]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.83318486295659, 50.132999019311875]</t>
+          <t>[49.83390281958106, 50.132281062687404]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.90616574399146, 50.07806313374041]</t>
+          <t>[49.906021828148376, 50.07820704958349]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.93813882498911, 50.22909918507956]</t>
+          <t>[49.94069116445341, 50.22654684561526]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.963779436594145, 50.132274822973095]</t>
+          <t>[49.96379313189229, 50.13226112767495]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.99635548981854, 50.253836171045776]</t>
+          <t>[49.99560003809346, 50.25459162277086]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.98576955804821, 50.15190526167523]</t>
+          <t>[49.985582925195395, 50.15209189452805]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.905707084830574, 50.16489435792871]</t>
+          <t>[49.906662952694774, 50.16393849006451]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.86772216963161, 50.05006579630891]</t>
+          <t>[49.86777179917612, 50.0500161667644]</t>
         </is>
       </c>
       <c r="V8" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_0_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_0_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.83440990109228, 50.07240287229322]</t>
+          <t>[49.8343926028183, 50.0724201705672]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.8510931545863, 50.025301190358896]</t>
+          <t>[49.850942403313994, 50.025451941631204]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.83118640922864, 50.13303153339768]</t>
+          <t>[49.835892823046926, 50.128325119579394]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.898704568608245, 50.06537575287347]</t>
+          <t>[49.89857487361803, 50.065505447863686]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.947491046461614, 50.26520811537957]</t>
+          <t>[49.947665326625426, 50.26503383521576]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.90863780043246, 50.0720571221768]</t>
+          <t>[49.90847523862778, 50.07221968398148]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.83390281958106, 50.132281062687404]</t>
+          <t>[49.832984408339264, 50.1331994739292]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.906021828148376, 50.07820704958349]</t>
+          <t>[49.90608648570256, 50.07814239202931]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.94069116445341, 50.22654684561526]</t>
+          <t>[49.937131391863645, 50.23010661820503]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.96379313189229, 50.13226112767495]</t>
+          <t>[49.96388410293545, 50.13217015663179]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.99560003809346, 50.25459162277086]</t>
+          <t>[49.99738700965842, 50.2528046512059]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.985582925195395, 50.15209189452805]</t>
+          <t>[49.98573871479279, 50.151936104930655]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.906662952694774, 50.16393849006451]</t>
+          <t>[49.90554279317977, 50.165058649579514]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.86777179917612, 50.0500161667644]</t>
+          <t>[49.86762446284115, 50.05016350309937]</t>
         </is>
       </c>
       <c r="V8" t="n">
